--- a/biology/Zoologie/Euryglottis_aper/Euryglottis_aper.xlsx
+++ b/biology/Zoologie/Euryglottis_aper/Euryglottis_aper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euryglottis aper est une espèce de lépidoptères de la famille des Sphingidae, de la sous-famille des Sphinginae, de la tribu des Sphingini et du genre Euryglottis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La surface dorsale antérieure présente une bande discale bien marquée de trois lignes. Les deux lignes extérieures ne sont pas aussi distinctes chez Euryglottis  guttiventris. La face ventrale de l'abdomen présente des points apicaux sur les sternites 3 à 5, mais ceux-ci ne sont pas distincts en comparaison de ceux d'Euryglottis guttiventris.
 			Avers de la femelle(coll.MHNT)
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est néo-tropical[1]. L'espèce est connue en Colombie, en Équateur, au Venezuela et en Bolivie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est néo-tropical. L'espèce est connue en Colombie, en Équateur, au Venezuela et en Bolivie.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos volent en octobre en Équateur.
 </t>
@@ -606,7 +624,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'espèce Euryglottis aper a été décrite par l'entomologistes britannique Francis Walker en 1856, sous le nom initial de Macrosila aper. La localité type est Bogota.</t>
         </is>
@@ -636,7 +656,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Macrosila aper Walker, 1856 protonyme
 Sphinx aper Herrich-Schäffer, 1856</t>
